--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2992.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2992.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.182692668544606</v>
+        <v>1.994371771812439</v>
       </c>
       <c r="B1">
-        <v>2.47048120577261</v>
+        <v>2.137722253799438</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.147311210632324</v>
       </c>
       <c r="D1">
-        <v>2.283558964341606</v>
+        <v>2.673890352249146</v>
       </c>
       <c r="E1">
-        <v>1.197022956476561</v>
+        <v>3.431544303894043</v>
       </c>
     </row>
   </sheetData>
